--- a/biology/Zoologie/Babina_lini/Babina_lini.xlsx
+++ b/biology/Zoologie/Babina_lini/Babina_lini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Babina lini est une espèce d'amphibiens de la famille des Ranidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Babina lini est une espèce d'amphibiens de la famille des Ranidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 en République populaire de Chine dans le Sud-Est du Yunnan dans le district de Simao et dans la préfecture autonome hani et yi de Honghe ;
 en Thaïlande dans les provinces de Loei et de Phetchabun ;
 au Viêt Nam dans les provinces de Sơn La et de Điện Biên ;
@@ -545,9 +559,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Babina lini mesure en moyenne de 44 à 62 mm[2]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Babina lini mesure en moyenne de 44 à 62 mm. 
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom scientifique lui a été donné en référence à Edgar Jun-yi Lin qui a étudié les amphibiens et reptiles de Taïwan et qui a œuvré pour la préservation environnementale de l'île[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom scientifique lui a été donné en référence à Edgar Jun-yi Lin qui a étudié les amphibiens et reptiles de Taïwan et qui a œuvré pour la préservation environnementale de l'île.
 </t>
         </is>
       </c>
@@ -607,7 +625,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Chou, 1999 : A new frog of the genus Rana (Anura: Ranidae) from China. Herpetologica, vol. 55, no 3, p. 389-400.</t>
         </is>
